--- a/ExtractionResult.xlsx
+++ b/ExtractionResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>Company name</x:t>
   </x:si>
@@ -33,13 +33,10 @@
 Sit Amet Corp.</x:t>
   </x:si>
   <x:si>
-    <x:t>Jun't, 2019</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16862</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21,442.80</x:t>
+    <x:t>11448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,288.80</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -414,14 +411,11 @@
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -462,14 +456,11 @@
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ExtractionResult.xlsx
+++ b/ExtractionResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <x:si>
     <x:t>Company name</x:t>
   </x:si>
@@ -27,16 +27,40 @@
   </x:si>
   <x:si>
     <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aenean LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000.00</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
 Sit Amet Corp.</x:t>
   </x:si>
   <x:si>
-    <x:t>11448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,288.80</x:t>
+    <x:t>Jin302019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17,310.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800.00</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -411,11 +435,56 @@
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -456,11 +525,56 @@
       <x:c r="A2" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
       <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
